--- a/foodproject/foodapp/data/Food Order.xlsx
+++ b/foodproject/foodapp/data/Food Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food-order\foodproject\foodapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C9C87-8B6C-4E3F-8CFB-D12636746060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865952A-E3D3-4736-A8C3-154FB9E48D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2349,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5547,10 +5547,10 @@
         <v>186</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H110" s="1">
         <v>4.9000000000000004</v>
@@ -7029,7 +7029,7 @@
         <v>35</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H161" s="1">
         <v>4.7</v>
@@ -7058,7 +7058,7 @@
         <v>35</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H162" s="1">
         <v>4.7</v>

--- a/foodproject/foodapp/data/Food Order.xlsx
+++ b/foodproject/foodapp/data/Food Order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food-order\foodproject\foodapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865952A-E3D3-4736-A8C3-154FB9E48D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23460EA3-DD0C-4F22-BF36-4516E63B433D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,9 +364,6 @@
     <t>Condensed milk, nestle cream, coconut ice, red food coloring, desiccated coconut</t>
   </si>
   <si>
-    <t xml:space="preserve">Currivepillai sadam </t>
-  </si>
-  <si>
     <t>Chana dal, urad dal, fresh coconut, sesame seeds, curry leaves</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>Urad dal, bhuna chana, garam masala, dates, tamarind</t>
   </si>
   <si>
-    <t xml:space="preserve">Dal makhani </t>
-  </si>
-  <si>
     <t>Red kidney beans, urad dal, cream, garam masala, chili powder</t>
   </si>
   <si>
@@ -1535,6 +1529,12 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Dal makhani</t>
+  </si>
+  <si>
+    <t>Currivepillai sadam</t>
   </si>
 </sst>
 </file>
@@ -2349,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2371,25 +2371,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -3589,19 +3589,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>35</v>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>11</v>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>11</v>
@@ -3705,10 +3705,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>502</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>11</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
@@ -3879,10 +3879,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -3937,10 +3937,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>11</v>
@@ -3949,7 +3949,7 @@
         <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>35</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
@@ -3978,7 +3978,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>35</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -4024,19 +4024,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>14</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>11</v>
@@ -4065,10 +4065,10 @@
         <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>39</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
@@ -4227,10 +4227,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
@@ -4343,10 +4343,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -4471,7 +4471,7 @@
         <v>38</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>35</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -4500,7 +4500,7 @@
         <v>38</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>35</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
@@ -4558,7 +4558,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>14</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>11</v>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>11</v>
@@ -4616,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>35</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
@@ -4645,7 +4645,7 @@
         <v>38</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>14</v>
@@ -4662,10 +4662,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>11</v>
@@ -4691,19 +4691,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>14</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>4</v>
@@ -4778,10 +4778,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>4</v>
@@ -4836,10 +4836,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>4</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>20</v>
@@ -4923,10 +4923,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>11</v>
@@ -4935,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>35</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>11</v>
@@ -4964,7 +4964,7 @@
         <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>35</v>
@@ -4981,10 +4981,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>11</v>
@@ -4993,7 +4993,7 @@
         <v>12</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>35</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>11</v>
@@ -5022,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>35</v>
@@ -5039,13 +5039,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>12</v>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -5097,10 +5097,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>11</v>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
@@ -5213,10 +5213,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
@@ -5242,10 +5242,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>11</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
@@ -5300,10 +5300,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>11</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>11</v>
@@ -5341,7 +5341,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>14</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>11</v>
@@ -5387,10 +5387,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>11</v>
@@ -5399,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>35</v>
@@ -5416,10 +5416,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>11</v>
@@ -5428,7 +5428,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>35</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>11</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>11</v>
@@ -5503,10 +5503,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>11</v>
@@ -5515,7 +5515,7 @@
         <v>12</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>35</v>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
@@ -5544,7 +5544,7 @@
         <v>5</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>14</v>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>11</v>
@@ -5590,10 +5590,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>11</v>
@@ -5602,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>35</v>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>11</v>
@@ -5631,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>35</v>
@@ -5648,10 +5648,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
@@ -5677,22 +5677,22 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>78</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>72</v>
@@ -5735,10 +5735,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>4</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>11</v>
@@ -5776,7 +5776,7 @@
         <v>12</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>14</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>11</v>
@@ -5805,10 +5805,10 @@
         <v>12</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>29</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>95</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>11</v>
@@ -5880,19 +5880,19 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>14</v>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>4</v>
@@ -5938,10 +5938,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>11</v>
@@ -5996,10 +5996,10 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
@@ -6025,10 +6025,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>11</v>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
@@ -6066,7 +6066,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>14</v>
@@ -6083,10 +6083,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>11</v>
@@ -6095,7 +6095,7 @@
         <v>38</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>35</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
@@ -6124,10 +6124,10 @@
         <v>5</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>61</v>
@@ -6141,10 +6141,10 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>20</v>
@@ -6170,10 +6170,10 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
@@ -6199,10 +6199,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>4</v>
@@ -6228,10 +6228,10 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>11</v>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>4</v>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
@@ -6315,10 +6315,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>4</v>
@@ -6344,10 +6344,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>11</v>
@@ -6373,10 +6373,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>11</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>20</v>
@@ -6431,10 +6431,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>4</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
@@ -6489,10 +6489,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>11</v>
@@ -6518,10 +6518,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
@@ -6547,10 +6547,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>11</v>
@@ -6559,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>14</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
@@ -6605,10 +6605,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>4</v>
@@ -6617,7 +6617,7 @@
         <v>12</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>35</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>11</v>
@@ -6663,10 +6663,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>11</v>
@@ -6692,10 +6692,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>4</v>
@@ -6721,10 +6721,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>11</v>
@@ -6750,10 +6750,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>11</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>4</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>11</v>
@@ -6823,7 +6823,7 @@
         <v>27</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>39</v>
@@ -6837,10 +6837,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>11</v>
@@ -6849,7 +6849,7 @@
         <v>12</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>35</v>
@@ -6866,10 +6866,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>4</v>
@@ -6878,7 +6878,7 @@
         <v>5</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>35</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>4</v>
@@ -6924,10 +6924,10 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>11</v>
@@ -6939,7 +6939,7 @@
         <v>47</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>39</v>
@@ -6953,10 +6953,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>11</v>
@@ -6982,10 +6982,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>11</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>11</v>
@@ -7040,10 +7040,10 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>11</v>
@@ -7052,7 +7052,7 @@
         <v>12</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>35</v>
@@ -7069,10 +7069,10 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>11</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>11</v>
@@ -7127,10 +7127,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>11</v>
@@ -7156,10 +7156,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
@@ -7185,10 +7185,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>4</v>
@@ -7214,10 +7214,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>11</v>
@@ -7243,10 +7243,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>4</v>
@@ -7255,7 +7255,7 @@
         <v>5</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>14</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
@@ -7301,10 +7301,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>4</v>
@@ -7330,10 +7330,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>11</v>
@@ -7359,10 +7359,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>4</v>
@@ -7388,10 +7388,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>11</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>4</v>
@@ -7429,7 +7429,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>35</v>
@@ -7446,10 +7446,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
@@ -7475,10 +7475,10 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>4</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>11</v>
@@ -7516,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>35</v>
@@ -7533,10 +7533,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>11</v>
@@ -7545,7 +7545,7 @@
         <v>12</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>35</v>
@@ -7562,10 +7562,10 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>11</v>
@@ -7591,10 +7591,10 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>4</v>
@@ -7620,10 +7620,10 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
@@ -7632,7 +7632,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>35</v>
@@ -7649,10 +7649,10 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
@@ -7661,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>14</v>
@@ -7678,10 +7678,10 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>11</v>
@@ -7707,10 +7707,10 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>4</v>
@@ -7736,10 +7736,10 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
@@ -7765,10 +7765,10 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>11</v>
@@ -7777,7 +7777,7 @@
         <v>12</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>35</v>
@@ -7794,10 +7794,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>4</v>
@@ -7823,10 +7823,10 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>4</v>
@@ -7835,7 +7835,7 @@
         <v>12</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>35</v>
@@ -7852,10 +7852,10 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>4</v>
@@ -7881,10 +7881,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>11</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>11</v>
@@ -7939,10 +7939,10 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>11</v>
@@ -7951,7 +7951,7 @@
         <v>12</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>35</v>
@@ -7968,10 +7968,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>11</v>
@@ -7980,10 +7980,10 @@
         <v>38</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>11</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>4</v>
@@ -8026,10 +8026,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>11</v>
@@ -8055,10 +8055,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>11</v>
@@ -8067,7 +8067,7 @@
         <v>12</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>14</v>
@@ -8084,10 +8084,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>11</v>
@@ -8113,10 +8113,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>11</v>
@@ -8142,10 +8142,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>4</v>
@@ -8154,7 +8154,7 @@
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>35</v>
@@ -8171,10 +8171,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>11</v>
@@ -8200,10 +8200,10 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>4</v>
@@ -8212,7 +8212,7 @@
         <v>5</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>35</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>4</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>4</v>
@@ -8270,7 +8270,7 @@
         <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>35</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>4</v>
@@ -8316,10 +8316,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>4</v>
@@ -8345,10 +8345,10 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>4</v>
@@ -8357,7 +8357,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>14</v>
@@ -8374,10 +8374,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>11</v>
@@ -8403,10 +8403,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>4</v>
@@ -8415,7 +8415,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>14</v>
@@ -8432,10 +8432,10 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
@@ -8444,7 +8444,7 @@
         <v>5</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>14</v>
@@ -8461,10 +8461,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>4</v>
@@ -8490,10 +8490,10 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>4</v>
@@ -8519,10 +8519,10 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>11</v>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>4</v>
@@ -8577,10 +8577,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>11</v>
@@ -8606,10 +8606,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>20</v>
@@ -8618,7 +8618,7 @@
         <v>12</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>35</v>
@@ -8635,10 +8635,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>11</v>
@@ -8664,10 +8664,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>11</v>
@@ -8693,10 +8693,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>4</v>
@@ -8722,10 +8722,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>11</v>
@@ -8751,10 +8751,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>11</v>
@@ -8780,10 +8780,10 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>4</v>
@@ -8792,7 +8792,7 @@
         <v>5</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>35</v>
@@ -8809,10 +8809,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>11</v>
@@ -8821,7 +8821,7 @@
         <v>38</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>35</v>
@@ -8838,10 +8838,10 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>11</v>
@@ -8850,7 +8850,7 @@
         <v>38</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>35</v>
@@ -8867,10 +8867,10 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>11</v>
@@ -8879,7 +8879,7 @@
         <v>38</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>35</v>
@@ -8896,10 +8896,10 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>11</v>
@@ -8925,10 +8925,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>11</v>
@@ -8954,10 +8954,10 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>11</v>
